--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -1,42 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e1f48039a7511a36/Desktop/portfolio/inventory-system/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_6CFC34B8B92491F56069CCEDEF522C0F8E4A06B0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D33D94E1-DFC1-457F-9F95-64C5A57CE2AE}"/>
+  <bookViews>
+    <workbookView xWindow="3945" yWindow="1065" windowWidth="21585" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Items" sheetId="1" r:id="rId1"/>
     <sheet name="Users" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>Screws</t>
+  </si>
+  <si>
+    <t>Screws33</t>
+  </si>
+  <si>
+    <t>pin</t>
+  </si>
+  <si>
+    <t>sarah</t>
+  </si>
+  <si>
+    <t>greg</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>U1S1R1C1</t>
+  </si>
+  <si>
+    <t>U1S1R1C2</t>
+  </si>
+  <si>
+    <t>barcode</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -66,13 +90,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -87,44 +119,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -152,14 +184,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -187,6 +236,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -198,276 +264,236 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>quantity</v>
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Item2</v>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>3453546</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Item3</v>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Screws</v>
-      </c>
-      <c r="B4">
-        <v>86</v>
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>3455366</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B4"/>
+    <ignoredError sqref="A1:B3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>pin</v>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>sarah</v>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
       <c r="B2">
         <v>317397</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>greg</v>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
       </c>
       <c r="B3">
         <v>162800</v>
@@ -476,7 +502,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B3"/>
+    <ignoredError sqref="A1:B3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>